--- a/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Bed_Breakfast'.xlsx
+++ b/experiments/programs/SeeDB_python/DiViz_airbnb/property_type='Bed_Breakfast'.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,58 +449,58 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>0.37841705149356758</v>
+        <v>0.84394963304058879</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>0.28010547987778373</v>
+        <v>0.69246460334788329</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>0.25975124151117679</v>
+        <v>0.64033186499777728</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>0.25723890763060753</v>
+        <v>0.52349700577462754</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,41 +508,41 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>0.23294698605458999</v>
+        <v>0.37846196349681821</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>0.2239593823078774</v>
+        <v>0.37648415389490558</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>8.2839359926576359E-2</v>
+        <v>0.34591323484695069</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -550,13 +550,13 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>7.3674391266013023E-2</v>
+        <v>0.28010547987778373</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -564,18 +564,18 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>7.1118371902817806E-2</v>
+        <v>0.25975124151117679</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -584,49 +584,49 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.84401125731909432</v>
+        <v>0.25727403502327229</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>0.69253522026187631</v>
+        <v>0.23294698605458999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>0.6403807943951012</v>
+        <v>0.22664508258192681</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>0.52349700577462754</v>
+        <v>0.22394853539699719</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -634,69 +634,69 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>0.37648415389490558</v>
+        <v>0.19777154288495699</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>0.34591076784521169</v>
+        <v>0.173818684796122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D17">
-        <v>0.1977762952822584</v>
+        <v>0.17093154490538151</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0.12632098193601829</v>
+        <v>0.17041457545118471</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>7.9745880835810232E-2</v>
+        <v>0.16721957583271641</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -704,13 +704,13 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>0.22665644664454501</v>
+        <v>0.14611440495084699</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -718,13 +718,13 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>0.173818684796122</v>
+        <v>0.1456157995716201</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -732,13 +732,13 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>0.1709400052062989</v>
+        <v>0.14330273861521409</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,89 +746,86 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23">
-        <v>0.1703988609714813</v>
+        <v>0.138432003892941</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24">
-        <v>0.16721957583271641</v>
+        <v>0.12632098193601829</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D25">
-        <v>0.14611252193272639</v>
+        <v>8.299289533362203E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
       </c>
       <c r="D26">
-        <v>0.14561961589963321</v>
+        <v>7.9811916460236013E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
       </c>
       <c r="D27">
-        <v>0.14330067216609579</v>
+        <v>7.3581130584378776E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>0.138432003892941</v>
+        <v>7.1103650052602677E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E37">
-    <sortCondition ref="A1"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>